--- a/StrategyDev/美股投資/Opt_OI/2022/07/19/QQQ_Option_OI.xlsx
+++ b/StrategyDev/美股投資/Opt_OI/2022/07/19/QQQ_Option_OI.xlsx
@@ -456,7 +456,7 @@
         <v>300</v>
       </c>
       <c r="B2" t="n">
-        <v>79284</v>
+        <v>90532</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B3" t="n">
-        <v>46806</v>
+        <v>47788</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -475,10 +475,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B4" t="n">
-        <v>42804</v>
+        <v>39411</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -486,10 +486,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B5" t="n">
-        <v>29727</v>
+        <v>36804</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="B6" t="n">
-        <v>29126</v>
+        <v>30983</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B7" t="n">
-        <v>24221</v>
+        <v>25432</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -519,10 +519,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B8" t="n">
-        <v>21993</v>
+        <v>23102</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B9" t="n">
-        <v>21738</v>
+        <v>19019</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -541,10 +541,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B10" t="n">
-        <v>17715</v>
+        <v>17844</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>280</v>
       </c>
       <c r="B11" t="n">
-        <v>16748</v>
+        <v>15340</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>285</v>
       </c>
       <c r="B2" t="n">
-        <v>50572</v>
+        <v>48001</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>280</v>
       </c>
       <c r="B3" t="n">
-        <v>40922</v>
+        <v>45532</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>270</v>
       </c>
       <c r="B4" t="n">
-        <v>37817</v>
+        <v>39130</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>275</v>
       </c>
       <c r="B5" t="n">
-        <v>36539</v>
+        <v>36426</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>255</v>
       </c>
       <c r="B6" t="n">
-        <v>27515</v>
+        <v>27291</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>250</v>
       </c>
       <c r="B7" t="n">
-        <v>27163</v>
+        <v>26158</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="B8" t="n">
-        <v>22997</v>
+        <v>22752</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="B9" t="n">
-        <v>22295</v>
+        <v>22509</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -687,10 +687,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="B10" t="n">
-        <v>18498</v>
+        <v>21197</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -698,10 +698,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B11" t="n">
-        <v>17515</v>
+        <v>20040</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
